--- a/Docs/EVALUATION RESULT.xlsx
+++ b/Docs/EVALUATION RESULT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARS Lenovo\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJAY LINGAMPALLI\OneDrive\Documents\GitHub\LanguageTranslationSystem\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5B28E8-C809-3A4C-8DA4-98661A115296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC30DC-FB49-4CEF-8C02-D46358EA49D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>MODEL LINK</t>
   </si>
@@ -77,20 +77,35 @@
     <t>URDU</t>
   </si>
   <si>
-    <t>CPU INTERFERENCE SPEED(s/ms)</t>
-  </si>
-  <si>
-    <t>GPU INTERFERENCE SPEED(s/ms)</t>
-  </si>
-  <si>
     <t>MODEL EVALUATION NUMBER</t>
+  </si>
+  <si>
+    <t>https://github.com/AI4Bharat/IndicTrans2</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>3.9 sec/sentence</t>
+  </si>
+  <si>
+    <t>GPU INFERENCE SPEED</t>
+  </si>
+  <si>
+    <t>CPU INFERENCE SPEED</t>
+  </si>
+  <si>
+    <t>0.139 sec/sentence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,19 +218,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -624,90 +660,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:P11"/>
+  <dimension ref="A9:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.4765625" customWidth="1"/>
-    <col min="2" max="2" width="20.984375" customWidth="1"/>
-    <col min="3" max="3" width="18.29296875" customWidth="1"/>
-    <col min="4" max="4" width="21.38671875" customWidth="1"/>
-    <col min="5" max="5" width="18.16015625" customWidth="1"/>
-    <col min="6" max="6" width="11.02734375" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" customWidth="1"/>
-    <col min="8" max="8" width="13.046875" customWidth="1"/>
-    <col min="12" max="12" width="11.97265625" customWidth="1"/>
-    <col min="15" max="15" width="40.89453125" customWidth="1"/>
-    <col min="16" max="16" width="33.359375" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="15" max="15" width="40.88671875" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E11" s="6"/>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{2DD616C4-6B02-4E50-A56A-AAFE1927CBC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>